--- a/documentation/CLASSModeler-UserHistories.xlsx
+++ b/documentation/CLASSModeler-UserHistories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Historias" sheetId="1" r:id="rId1"/>
@@ -443,47 +443,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -492,13 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,22 +802,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -826,10 +826,10 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
@@ -850,7 +850,7 @@
       <c r="F3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="26" t="s">
         <v>27</v>
       </c>
     </row>
@@ -870,7 +870,7 @@
       <c r="F4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="F6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
       <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -950,7 +950,7 @@
       <c r="F8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
       <c r="F9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -990,7 +990,7 @@
       <c r="F10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       <c r="F11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1030,19 +1030,19 @@
       <c r="F12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
@@ -1050,13 +1050,13 @@
       <c r="F13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>38</v>
@@ -1070,13 +1070,13 @@
       <c r="F14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>39</v>
@@ -1090,7 +1090,7 @@
       <c r="F15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       <c r="F16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       <c r="F17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
       <c r="F18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1182,7 +1182,7 @@
         <v>44</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
@@ -1190,19 +1190,19 @@
       <c r="F20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3">
         <v>15</v>
@@ -1210,7 +1210,7 @@
       <c r="F21" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1230,13 +1230,13 @@
       <c r="F22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>47</v>
@@ -1250,13 +1250,13 @@
       <c r="F23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>48</v>
@@ -1270,13 +1270,13 @@
       <c r="F24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
@@ -1290,7 +1290,7 @@
       <c r="F25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1310,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,10 +1329,10 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="10"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1437,7 +1437,7 @@
         <f>SUM(D3:D9)</f>
         <v>187</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1467,78 +1467,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="20" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="19"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/documentation/CLASSModeler-UserHistories.xlsx
+++ b/documentation/CLASSModeler-UserHistories.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Historias" sheetId="1" r:id="rId1"/>
     <sheet name="Iteraciones" sheetId="2" r:id="rId2"/>
     <sheet name="Formato de Historia de usuario" sheetId="3" r:id="rId3"/>
+    <sheet name="Formato de Iteración" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Historias!$B$2:$G$25</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="72">
   <si>
     <t>HISTORIA DE USUARIO</t>
   </si>
@@ -272,6 +273,21 @@
   </si>
   <si>
     <t>DURACIÓN</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Duración</t>
+  </si>
+  <si>
+    <t>Actividades a Realizar:</t>
+  </si>
+  <si>
+    <t>Resultados Esperados:</t>
+  </si>
+  <si>
+    <t>Historias de Usuario:</t>
   </si>
 </sst>
 </file>
@@ -435,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -447,6 +463,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,7 +515,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,10 +860,10 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
@@ -850,7 +884,7 @@
       <c r="F3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1310,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1329,10 +1363,10 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -1455,7 +1489,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B7" sqref="B7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,78 +1501,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="18" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1557,4 +1591,112 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/documentation/CLASSModeler-UserHistories.xlsx
+++ b/documentation/CLASSModeler-UserHistories.xlsx
@@ -215,15 +215,9 @@
     <t>H20. Modo Demostración</t>
   </si>
   <si>
-    <t>H21. Generar codigo fuente</t>
-  </si>
-  <si>
     <t>H22. Generar imagen</t>
   </si>
   <si>
-    <t>H23. Generar contructor y metodos get/set</t>
-  </si>
-  <si>
     <t>H3. Reasignar contraseña</t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>Historias de Usuario:</t>
+  </si>
+  <si>
+    <t>H21. Generar código fuente</t>
+  </si>
+  <si>
+    <t>H23. Generar constructor y métodos get/set</t>
   </si>
 </sst>
 </file>
@@ -464,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,9 +516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -834,10 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,15 +861,15 @@
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -882,13 +883,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -902,7 +903,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>6</v>
@@ -913,7 +914,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>3</v>
@@ -928,12 +929,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -942,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>6</v>
@@ -988,7 +989,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -1002,13 +1003,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>6</v>
       </c>
@@ -1048,7 +1049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>6</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>5</v>
       </c>
@@ -1082,13 +1083,13 @@
         <v>12</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>5</v>
       </c>
@@ -1102,13 +1103,13 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>5</v>
       </c>
@@ -1122,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>2</v>
       </c>
@@ -1142,13 +1143,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>2</v>
       </c>
@@ -1162,13 +1163,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>3</v>
       </c>
@@ -1182,13 +1183,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -1202,13 +1203,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>2</v>
       </c>
@@ -1222,13 +1223,13 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>5</v>
       </c>
@@ -1242,13 +1243,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>6</v>
       </c>
@@ -1265,15 +1266,15 @@
         <v>28</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>4</v>
@@ -1282,18 +1283,18 @@
         <v>15</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>4</v>
@@ -1302,18 +1303,18 @@
         <v>10</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>4</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
@@ -1322,14 +1323,19 @@
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:G25">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3" showButton="0"/>
   </autoFilter>
   <mergeCells count="1">
@@ -1363,23 +1369,23 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3">
         <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
@@ -1387,13 +1393,13 @@
         <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
@@ -1407,7 +1413,7 @@
         <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1415,13 +1421,13 @@
         <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3">
         <v>37</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
@@ -1429,13 +1435,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="3">
         <v>29</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1443,13 +1449,13 @@
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" s="3">
         <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
@@ -1457,13 +1463,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="3">
         <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -1472,7 +1478,7 @@
         <v>187</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1501,78 +1507,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="26"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1619,70 +1625,70 @@
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
-        <v>67</v>
+      <c r="B3" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="27" t="s">
-        <v>68</v>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="28"/>
       <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="B4" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="B6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
